--- a/Restaurant-Survey-Data.xlsx
+++ b/Restaurant-Survey-Data.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kbeny\Google Drive\Udemy\Data Sets\Section 7 - Likert Scale Chart\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{33BF44BE-4E08-4F48-86AF-0B856A461541}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9492"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9495" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Likert_Scale_Data" sheetId="1" r:id="rId1"/>
-    <sheet name="lookups" sheetId="2" r:id="rId2"/>
-    <sheet name="demographics" sheetId="3" r:id="rId3"/>
+    <sheet name="demographics" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -545,7 +545,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1380,22 +1380,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>157</v>
       </c>
@@ -1454,7 +1456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1513,7 +1515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1563,7 +1565,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1613,7 +1615,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1663,7 +1665,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1713,7 +1715,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1763,7 +1765,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1813,7 +1815,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1863,7 +1865,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1913,7 +1915,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1963,7 +1965,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -2013,7 +2015,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -2063,7 +2065,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -2113,7 +2115,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -2163,7 +2165,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -2213,7 +2215,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -2263,7 +2265,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -2313,7 +2315,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -2363,7 +2365,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -2413,7 +2415,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -2463,7 +2465,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -2513,7 +2515,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -2563,7 +2565,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -2613,7 +2615,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -2663,7 +2665,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -2713,7 +2715,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -2763,7 +2765,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -2813,7 +2815,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -2863,7 +2865,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -2913,7 +2915,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -2963,7 +2965,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -3013,7 +3015,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -3063,7 +3065,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -3113,7 +3115,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>53</v>
       </c>
@@ -3163,7 +3165,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -3213,7 +3215,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>55</v>
       </c>
@@ -3263,7 +3265,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -3313,7 +3315,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>57</v>
       </c>
@@ -3363,7 +3365,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>58</v>
       </c>
@@ -3413,7 +3415,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>59</v>
       </c>
@@ -3463,7 +3465,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>60</v>
       </c>
@@ -3513,7 +3515,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>61</v>
       </c>
@@ -3563,7 +3565,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>62</v>
       </c>
@@ -3613,7 +3615,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>63</v>
       </c>
@@ -3663,7 +3665,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>64</v>
       </c>
@@ -3713,7 +3715,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>65</v>
       </c>
@@ -3763,7 +3765,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>66</v>
       </c>
@@ -3813,7 +3815,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>67</v>
       </c>
@@ -3863,7 +3865,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>68</v>
       </c>
@@ -3913,7 +3915,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>69</v>
       </c>
@@ -3963,7 +3965,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>70</v>
       </c>
@@ -4013,7 +4015,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>71</v>
       </c>
@@ -4063,7 +4065,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>72</v>
       </c>
@@ -4113,7 +4115,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>73</v>
       </c>
@@ -4163,7 +4165,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>74</v>
       </c>
@@ -4213,7 +4215,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>75</v>
       </c>
@@ -4263,7 +4265,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>76</v>
       </c>
@@ -4313,7 +4315,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>77</v>
       </c>
@@ -4363,7 +4365,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>78</v>
       </c>
@@ -4413,7 +4415,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>79</v>
       </c>
@@ -4463,7 +4465,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>80</v>
       </c>
@@ -4513,7 +4515,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>81</v>
       </c>
@@ -4563,7 +4565,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>82</v>
       </c>
@@ -4613,7 +4615,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>83</v>
       </c>
@@ -4663,7 +4665,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>84</v>
       </c>
@@ -4713,7 +4715,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>85</v>
       </c>
@@ -4763,7 +4765,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>86</v>
       </c>
@@ -4813,7 +4815,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>87</v>
       </c>
@@ -4863,7 +4865,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>88</v>
       </c>
@@ -4913,7 +4915,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>89</v>
       </c>
@@ -4963,7 +4965,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>90</v>
       </c>
@@ -5013,7 +5015,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>91</v>
       </c>
@@ -5063,7 +5065,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>92</v>
       </c>
@@ -5113,7 +5115,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>93</v>
       </c>
@@ -5163,7 +5165,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>94</v>
       </c>
@@ -5213,7 +5215,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>95</v>
       </c>
@@ -5263,7 +5265,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>96</v>
       </c>
@@ -5313,7 +5315,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>97</v>
       </c>
@@ -5363,7 +5365,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>98</v>
       </c>
@@ -5413,7 +5415,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>99</v>
       </c>
@@ -5463,7 +5465,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>100</v>
       </c>
@@ -5513,7 +5515,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>101</v>
       </c>
@@ -5563,7 +5565,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>102</v>
       </c>
@@ -5613,7 +5615,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>103</v>
       </c>
@@ -5663,7 +5665,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>104</v>
       </c>
@@ -5713,7 +5715,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>105</v>
       </c>
@@ -5763,7 +5765,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>106</v>
       </c>
@@ -5813,7 +5815,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>107</v>
       </c>
@@ -5863,7 +5865,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>108</v>
       </c>
@@ -5913,7 +5915,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>109</v>
       </c>
@@ -5963,7 +5965,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>110</v>
       </c>
@@ -6013,7 +6015,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>111</v>
       </c>
@@ -6063,7 +6065,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>112</v>
       </c>
@@ -6113,7 +6115,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>113</v>
       </c>
@@ -6163,7 +6165,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>114</v>
       </c>
@@ -6213,7 +6215,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>115</v>
       </c>
@@ -6263,7 +6265,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>116</v>
       </c>
@@ -6313,7 +6315,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>117</v>
       </c>
@@ -6363,7 +6365,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>118</v>
       </c>
@@ -6413,7 +6415,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>119</v>
       </c>
@@ -6463,7 +6465,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>120</v>
       </c>
@@ -6513,7 +6515,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>121</v>
       </c>
@@ -6563,7 +6565,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>122</v>
       </c>
@@ -6613,7 +6615,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>123</v>
       </c>
@@ -6663,7 +6665,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>124</v>
       </c>
@@ -6713,7 +6715,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>125</v>
       </c>
@@ -6763,7 +6765,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>126</v>
       </c>
@@ -6813,7 +6815,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>127</v>
       </c>
@@ -6863,7 +6865,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>128</v>
       </c>
@@ -6913,7 +6915,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>129</v>
       </c>
@@ -6963,7 +6965,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>130</v>
       </c>
@@ -7013,7 +7015,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>131</v>
       </c>
@@ -7063,7 +7065,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>132</v>
       </c>
@@ -7113,7 +7115,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>133</v>
       </c>
@@ -7163,7 +7165,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>134</v>
       </c>
@@ -7213,7 +7215,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>135</v>
       </c>
@@ -7263,7 +7265,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>136</v>
       </c>
@@ -7313,7 +7315,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>137</v>
       </c>
@@ -7363,7 +7365,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>138</v>
       </c>
@@ -7413,7 +7415,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>139</v>
       </c>
@@ -7463,7 +7465,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>140</v>
       </c>
@@ -7513,7 +7515,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>141</v>
       </c>
@@ -7563,7 +7565,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>142</v>
       </c>
@@ -7613,7 +7615,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>143</v>
       </c>
@@ -7663,7 +7665,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>144</v>
       </c>
@@ -7713,7 +7715,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>145</v>
       </c>
@@ -7763,7 +7765,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>146</v>
       </c>
@@ -7813,7 +7815,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>147</v>
       </c>
@@ -7863,7 +7865,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>148</v>
       </c>
@@ -7919,39 +7921,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.21875" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D129"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -7965,7 +7948,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -7979,7 +7962,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -7993,7 +7976,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -8007,7 +7990,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -8021,7 +8004,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -8035,7 +8018,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -8049,7 +8032,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -8063,7 +8046,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -8077,7 +8060,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -8091,7 +8074,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -8105,7 +8088,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -8119,7 +8102,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -8133,7 +8116,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -8147,7 +8130,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -8161,7 +8144,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -8175,7 +8158,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -8189,7 +8172,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -8203,7 +8186,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -8217,7 +8200,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -8231,7 +8214,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -8245,7 +8228,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -8259,7 +8242,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -8273,7 +8256,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -8287,7 +8270,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -8301,7 +8284,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -8315,7 +8298,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -8329,7 +8312,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -8343,7 +8326,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -8357,7 +8340,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -8371,7 +8354,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -8385,7 +8368,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>51</v>
       </c>
@@ -8399,7 +8382,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -8413,7 +8396,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -8427,7 +8410,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -8441,7 +8424,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>55</v>
       </c>
@@ -8455,7 +8438,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>56</v>
       </c>
@@ -8469,7 +8452,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>57</v>
       </c>
@@ -8483,7 +8466,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>58</v>
       </c>
@@ -8497,7 +8480,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>59</v>
       </c>
@@ -8511,7 +8494,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -8525,7 +8508,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>61</v>
       </c>
@@ -8539,7 +8522,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>62</v>
       </c>
@@ -8553,7 +8536,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>63</v>
       </c>
@@ -8567,7 +8550,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>64</v>
       </c>
@@ -8581,7 +8564,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>65</v>
       </c>
@@ -8595,7 +8578,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>66</v>
       </c>
@@ -8609,7 +8592,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>67</v>
       </c>
@@ -8623,7 +8606,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>68</v>
       </c>
@@ -8637,7 +8620,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>69</v>
       </c>
@@ -8651,7 +8634,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>70</v>
       </c>
@@ -8665,7 +8648,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>71</v>
       </c>
@@ -8679,7 +8662,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>72</v>
       </c>
@@ -8693,7 +8676,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>73</v>
       </c>
@@ -8707,7 +8690,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>74</v>
       </c>
@@ -8721,7 +8704,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>75</v>
       </c>
@@ -8735,7 +8718,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>76</v>
       </c>
@@ -8749,7 +8732,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>77</v>
       </c>
@@ -8763,7 +8746,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>78</v>
       </c>
@@ -8777,7 +8760,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>79</v>
       </c>
@@ -8791,7 +8774,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>80</v>
       </c>
@@ -8805,7 +8788,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>81</v>
       </c>
@@ -8819,7 +8802,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>82</v>
       </c>
@@ -8833,7 +8816,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>83</v>
       </c>
@@ -8847,7 +8830,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>84</v>
       </c>
@@ -8861,7 +8844,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>85</v>
       </c>
@@ -8875,7 +8858,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>86</v>
       </c>
@@ -8889,7 +8872,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>87</v>
       </c>
@@ -8903,7 +8886,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>88</v>
       </c>
@@ -8917,7 +8900,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>89</v>
       </c>
@@ -8931,7 +8914,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>90</v>
       </c>
@@ -8945,7 +8928,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>91</v>
       </c>
@@ -8959,7 +8942,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>92</v>
       </c>
@@ -8973,7 +8956,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>93</v>
       </c>
@@ -8987,7 +8970,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>94</v>
       </c>
@@ -9001,7 +8984,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>95</v>
       </c>
@@ -9015,7 +8998,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>96</v>
       </c>
@@ -9029,7 +9012,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>97</v>
       </c>
@@ -9043,7 +9026,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>98</v>
       </c>
@@ -9057,7 +9040,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>99</v>
       </c>
@@ -9071,7 +9054,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>100</v>
       </c>
@@ -9085,7 +9068,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>101</v>
       </c>
@@ -9099,7 +9082,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>102</v>
       </c>
@@ -9113,7 +9096,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>103</v>
       </c>
@@ -9127,7 +9110,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>104</v>
       </c>
@@ -9141,7 +9124,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>105</v>
       </c>
@@ -9155,7 +9138,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>106</v>
       </c>
@@ -9169,7 +9152,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>107</v>
       </c>
@@ -9183,7 +9166,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>108</v>
       </c>
@@ -9197,7 +9180,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>109</v>
       </c>
@@ -9211,7 +9194,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>110</v>
       </c>
@@ -9225,7 +9208,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>111</v>
       </c>
@@ -9239,7 +9222,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>112</v>
       </c>
@@ -9253,7 +9236,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>113</v>
       </c>
@@ -9267,7 +9250,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>114</v>
       </c>
@@ -9281,7 +9264,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>115</v>
       </c>
@@ -9295,7 +9278,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>116</v>
       </c>
@@ -9309,7 +9292,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>117</v>
       </c>
@@ -9323,7 +9306,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>118</v>
       </c>
@@ -9337,7 +9320,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>119</v>
       </c>
@@ -9351,7 +9334,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>120</v>
       </c>
@@ -9365,7 +9348,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>121</v>
       </c>
@@ -9379,7 +9362,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>122</v>
       </c>
@@ -9393,7 +9376,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>123</v>
       </c>
@@ -9407,7 +9390,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>124</v>
       </c>
@@ -9421,7 +9404,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>125</v>
       </c>
@@ -9435,7 +9418,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>126</v>
       </c>
@@ -9449,7 +9432,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>127</v>
       </c>
@@ -9463,7 +9446,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>128</v>
       </c>
@@ -9477,7 +9460,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>129</v>
       </c>
@@ -9491,7 +9474,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>130</v>
       </c>
@@ -9505,7 +9488,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>131</v>
       </c>
@@ -9519,7 +9502,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>132</v>
       </c>
@@ -9533,7 +9516,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>133</v>
       </c>
@@ -9547,7 +9530,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>134</v>
       </c>
@@ -9561,7 +9544,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>135</v>
       </c>
@@ -9575,7 +9558,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>136</v>
       </c>
@@ -9589,7 +9572,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>137</v>
       </c>
@@ -9603,7 +9586,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>138</v>
       </c>
@@ -9617,7 +9600,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>139</v>
       </c>
@@ -9631,7 +9614,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>140</v>
       </c>
@@ -9645,7 +9628,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>141</v>
       </c>
@@ -9659,7 +9642,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>142</v>
       </c>
@@ -9673,7 +9656,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>143</v>
       </c>
@@ -9687,7 +9670,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>144</v>
       </c>
@@ -9701,7 +9684,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>145</v>
       </c>
@@ -9715,7 +9698,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>146</v>
       </c>
@@ -9729,7 +9712,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>147</v>
       </c>
@@ -9743,7 +9726,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>148</v>
       </c>
